--- a/Table_S1.xlsx
+++ b/Table_S1.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\jianguoyun\shinyView\Manuscript\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\jianguoyun\shinyReview\Manuscript\BIB\R1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCCFB6E6-DFE6-42A7-B6CD-331D775C3533}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40825479-C80B-4A34-9BF3-AC264C17F213}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1740" yWindow="-120" windowWidth="27180" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Table_S3" sheetId="2" r:id="rId1"/>
+    <sheet name="Table S1" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -3282,7 +3282,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -3290,11 +3290,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3302,6 +3311,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3589,27 +3599,27 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
+      <selection pane="bottomLeft" sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="15.125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="17.625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="45.125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="61.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.1328125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="17.59765625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="45.1328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="61.1328125" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:4" s="1" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="6" t="s">
         <v>939</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-    </row>
-    <row r="2" spans="1:4" s="4" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+    </row>
+    <row r="2" spans="1:4" s="4" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
         <v>935</v>
       </c>
@@ -3623,7 +3633,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="4" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" s="4" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
         <v>735</v>
       </c>
@@ -3637,7 +3647,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -3651,7 +3661,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
         <v>782</v>
       </c>
@@ -3665,7 +3675,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6" s="3" t="s">
         <v>210</v>
       </c>
@@ -3676,7 +3686,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7" s="3" t="s">
         <v>755</v>
       </c>
@@ -3687,7 +3697,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A8" s="3" t="s">
         <v>213</v>
       </c>
@@ -3701,7 +3711,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A9" s="3" t="s">
         <v>80</v>
       </c>
@@ -3712,7 +3722,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A10" s="3" t="s">
         <v>273</v>
       </c>
@@ -3723,7 +3733,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A11" s="3" t="s">
         <v>728</v>
       </c>
@@ -3737,7 +3747,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A12" s="3" t="s">
         <v>0</v>
       </c>
@@ -3751,7 +3761,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A13" s="3" t="s">
         <v>741</v>
       </c>
@@ -3762,7 +3772,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A14" s="3" t="s">
         <v>216</v>
       </c>
@@ -3776,7 +3786,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A15" s="3" t="s">
         <v>721</v>
       </c>
@@ -3790,7 +3800,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A16" s="3" t="s">
         <v>699</v>
       </c>
@@ -3801,7 +3811,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A17" s="3" t="s">
         <v>775</v>
       </c>
@@ -3812,7 +3822,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A18" s="3" t="s">
         <v>878</v>
       </c>
@@ -3826,7 +3836,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A19" s="3" t="s">
         <v>445</v>
       </c>
@@ -3840,7 +3850,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A20" s="3" t="s">
         <v>706</v>
       </c>
@@ -3854,7 +3864,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A21" s="2" t="s">
         <v>717</v>
       </c>
@@ -3868,7 +3878,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A22" s="3" t="s">
         <v>219</v>
       </c>
@@ -3882,7 +3892,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A23" s="3" t="s">
         <v>753</v>
       </c>
@@ -3893,7 +3903,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A24" s="3" t="s">
         <v>453</v>
       </c>
@@ -3907,7 +3917,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A25" s="3" t="s">
         <v>161</v>
       </c>
@@ -3921,7 +3931,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A26" s="3" t="s">
         <v>759</v>
       </c>
@@ -3935,7 +3945,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A27" s="3" t="s">
         <v>167</v>
       </c>
@@ -3946,7 +3956,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A28" s="3" t="s">
         <v>418</v>
       </c>
@@ -3960,7 +3970,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A29" s="3" t="s">
         <v>343</v>
       </c>
@@ -3971,7 +3981,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A30" s="3" t="s">
         <v>83</v>
       </c>
@@ -3982,7 +3992,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A31" s="3" t="s">
         <v>783</v>
       </c>
@@ -3996,7 +4006,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A32" s="3" t="s">
         <v>346</v>
       </c>
@@ -4010,7 +4020,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A33" s="3" t="s">
         <v>222</v>
       </c>
@@ -4024,7 +4034,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A34" s="3" t="s">
         <v>168</v>
       </c>
@@ -4038,7 +4048,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A35" s="3" t="s">
         <v>349</v>
       </c>
@@ -4052,7 +4062,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A36" s="3" t="s">
         <v>9</v>
       </c>
@@ -4066,7 +4076,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A37" s="3" t="s">
         <v>777</v>
       </c>
@@ -4077,7 +4087,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A38" s="3" t="s">
         <v>86</v>
       </c>
@@ -4088,7 +4098,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A39" s="3" t="s">
         <v>352</v>
       </c>
@@ -4102,7 +4112,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A40" s="3" t="s">
         <v>89</v>
       </c>
@@ -4116,7 +4126,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A41" s="3" t="s">
         <v>358</v>
       </c>
@@ -4130,7 +4140,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A42" s="3" t="s">
         <v>356</v>
       </c>
@@ -4144,7 +4154,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A43" s="3" t="s">
         <v>778</v>
       </c>
@@ -4155,7 +4165,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A44" s="3" t="s">
         <v>757</v>
       </c>
@@ -4169,7 +4179,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A45" s="3" t="s">
         <v>281</v>
       </c>
@@ -4183,7 +4193,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A46" s="3" t="s">
         <v>278</v>
       </c>
@@ -4197,7 +4207,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A47" s="3" t="s">
         <v>458</v>
       </c>
@@ -4211,7 +4221,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A48" s="3" t="s">
         <v>361</v>
       </c>
@@ -4222,7 +4232,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A49" s="3" t="s">
         <v>364</v>
       </c>
@@ -4233,7 +4243,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A50" s="3" t="s">
         <v>702</v>
       </c>
@@ -4247,7 +4257,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A51" s="3" t="s">
         <v>766</v>
       </c>
@@ -4261,7 +4271,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A52" s="3" t="s">
         <v>225</v>
       </c>
@@ -4275,7 +4285,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A53" s="3" t="s">
         <v>171</v>
       </c>
@@ -4289,7 +4299,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A54" s="3" t="s">
         <v>92</v>
       </c>
@@ -4303,7 +4313,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A55" s="3" t="s">
         <v>174</v>
       </c>
@@ -4317,7 +4327,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A56" s="3" t="s">
         <v>457</v>
       </c>
@@ -4331,7 +4341,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A57" s="3" t="s">
         <v>15</v>
       </c>
@@ -4342,7 +4352,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A58" s="3" t="s">
         <v>454</v>
       </c>
@@ -4353,7 +4363,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A59" s="3" t="s">
         <v>230</v>
       </c>
@@ -4364,7 +4374,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A60" s="3" t="s">
         <v>95</v>
       </c>
@@ -4378,7 +4388,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A61" s="3" t="s">
         <v>367</v>
       </c>
@@ -4392,7 +4402,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A62" s="3" t="s">
         <v>98</v>
       </c>
@@ -4406,7 +4416,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A63" s="3" t="s">
         <v>177</v>
       </c>
@@ -4420,7 +4430,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A64" s="3" t="s">
         <v>446</v>
       </c>
@@ -4434,7 +4444,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A65" s="3" t="s">
         <v>417</v>
       </c>
@@ -4448,7 +4458,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A66" s="3" t="s">
         <v>416</v>
       </c>
@@ -4459,7 +4469,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A67" s="3" t="s">
         <v>374</v>
       </c>
@@ -4473,7 +4483,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A68" s="3" t="s">
         <v>231</v>
       </c>
@@ -4487,7 +4497,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A69" s="4" t="s">
         <v>946</v>
       </c>
@@ -4498,7 +4508,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A70" s="3" t="s">
         <v>16</v>
       </c>
@@ -4509,7 +4519,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A71" s="3" t="s">
         <v>456</v>
       </c>
@@ -4523,7 +4533,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A72" s="3" t="s">
         <v>727</v>
       </c>
@@ -4534,7 +4544,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A73" s="3" t="s">
         <v>738</v>
       </c>
@@ -4548,7 +4558,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A74" s="2" t="s">
         <v>524</v>
       </c>
@@ -4562,7 +4572,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A75" s="3" t="s">
         <v>447</v>
       </c>
@@ -4576,7 +4586,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A76" s="3" t="s">
         <v>455</v>
       </c>
@@ -4587,7 +4597,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A77" s="3" t="s">
         <v>724</v>
       </c>
@@ -4601,7 +4611,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A78" s="3" t="s">
         <v>750</v>
       </c>
@@ -4612,7 +4622,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A79" s="3" t="s">
         <v>101</v>
       </c>
@@ -4623,7 +4633,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A80" s="3" t="s">
         <v>762</v>
       </c>
@@ -4637,7 +4647,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A81" s="3" t="s">
         <v>459</v>
       </c>
@@ -4648,7 +4658,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A82" s="3" t="s">
         <v>448</v>
       </c>
@@ -4659,7 +4669,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A83" s="3" t="s">
         <v>760</v>
       </c>
@@ -4670,7 +4680,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A84" s="3" t="s">
         <v>736</v>
       </c>
@@ -4684,7 +4694,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A85" s="3" t="s">
         <v>234</v>
       </c>
@@ -4695,7 +4705,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A86" s="3" t="s">
         <v>21</v>
       </c>
@@ -4706,7 +4716,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A87" s="3" t="s">
         <v>460</v>
       </c>
@@ -4717,7 +4727,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A88" s="3" t="s">
         <v>106</v>
       </c>
@@ -4731,7 +4741,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A89" s="3" t="s">
         <v>772</v>
       </c>
@@ -4742,7 +4752,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A90" s="3" t="s">
         <v>237</v>
       </c>
@@ -4756,7 +4766,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A91" s="3" t="s">
         <v>240</v>
       </c>
@@ -4767,7 +4777,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A92" s="2" t="s">
         <v>710</v>
       </c>
@@ -4778,7 +4788,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A93" s="3" t="s">
         <v>711</v>
       </c>
@@ -4789,7 +4799,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A94" s="3" t="s">
         <v>243</v>
       </c>
@@ -4803,7 +4813,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A95" s="3" t="s">
         <v>107</v>
       </c>
@@ -4817,7 +4827,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A96" s="3" t="s">
         <v>505</v>
       </c>
@@ -4828,7 +4838,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A97" s="3" t="s">
         <v>508</v>
       </c>
@@ -4839,7 +4849,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A98" s="3" t="s">
         <v>24</v>
       </c>
@@ -4853,7 +4863,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A99" s="3" t="s">
         <v>415</v>
       </c>
@@ -4867,7 +4877,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A100" s="3" t="s">
         <v>27</v>
       </c>
@@ -4881,7 +4891,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A101" s="3" t="s">
         <v>414</v>
       </c>
@@ -4892,7 +4902,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A102" s="3" t="s">
         <v>426</v>
       </c>
@@ -4903,7 +4913,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A103" s="3" t="s">
         <v>413</v>
       </c>
@@ -4914,7 +4924,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A104" s="3" t="s">
         <v>461</v>
       </c>
@@ -4928,7 +4938,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A105" s="3" t="s">
         <v>412</v>
       </c>
@@ -4942,7 +4952,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A106" s="3" t="s">
         <v>306</v>
       </c>
@@ -4953,7 +4963,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A107" s="3" t="s">
         <v>246</v>
       </c>
@@ -4967,7 +4977,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A108" s="3" t="s">
         <v>722</v>
       </c>
@@ -4981,7 +4991,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A109" s="3" t="s">
         <v>411</v>
       </c>
@@ -4995,7 +5005,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A110" s="3" t="s">
         <v>449</v>
       </c>
@@ -5009,7 +5019,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A111" s="3" t="s">
         <v>310</v>
       </c>
@@ -5020,7 +5030,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A112" s="3" t="s">
         <v>410</v>
       </c>
@@ -5031,7 +5041,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A113" s="3" t="s">
         <v>249</v>
       </c>
@@ -5042,7 +5052,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A114" s="3" t="s">
         <v>252</v>
       </c>
@@ -5056,7 +5066,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A115" s="3" t="s">
         <v>30</v>
       </c>
@@ -5070,7 +5080,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A116" s="3" t="s">
         <v>409</v>
       </c>
@@ -5084,7 +5094,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A117" s="3" t="s">
         <v>34</v>
       </c>
@@ -5098,7 +5108,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A118" s="3" t="s">
         <v>408</v>
       </c>
@@ -5109,7 +5119,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A119" s="3" t="s">
         <v>737</v>
       </c>
@@ -5123,7 +5133,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A120" s="3" t="s">
         <v>781</v>
       </c>
@@ -5137,7 +5147,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A121" s="3" t="s">
         <v>110</v>
       </c>
@@ -5148,7 +5158,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A122" s="3" t="s">
         <v>747</v>
       </c>
@@ -5162,7 +5172,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A123" s="3" t="s">
         <v>180</v>
       </c>
@@ -5173,7 +5183,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A124" s="3" t="s">
         <v>183</v>
       </c>
@@ -5184,7 +5194,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A125" s="3" t="s">
         <v>186</v>
       </c>
@@ -5198,7 +5208,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A126" s="3" t="s">
         <v>189</v>
       </c>
@@ -5212,7 +5222,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A127" s="3" t="s">
         <v>713</v>
       </c>
@@ -5223,7 +5233,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A128" s="3" t="s">
         <v>511</v>
       </c>
@@ -5237,7 +5247,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A129" s="3" t="s">
         <v>774</v>
       </c>
@@ -5251,7 +5261,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A130" s="3" t="s">
         <v>407</v>
       </c>
@@ -5265,7 +5275,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A131" s="3" t="s">
         <v>732</v>
       </c>
@@ -5279,7 +5289,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A132" s="3" t="s">
         <v>708</v>
       </c>
@@ -5293,7 +5303,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A133" s="3" t="s">
         <v>406</v>
       </c>
@@ -5307,7 +5317,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A134" s="3" t="s">
         <v>36</v>
       </c>
@@ -5321,7 +5331,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A135" s="3" t="s">
         <v>313</v>
       </c>
@@ -5335,7 +5345,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A136" s="3" t="s">
         <v>425</v>
       </c>
@@ -5349,7 +5359,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A137" s="3" t="s">
         <v>296</v>
       </c>
@@ -5363,7 +5373,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A138" s="3" t="s">
         <v>405</v>
       </c>
@@ -5377,7 +5387,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A139" s="3" t="s">
         <v>255</v>
       </c>
@@ -5391,7 +5401,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A140" s="3" t="s">
         <v>733</v>
       </c>
@@ -5405,7 +5415,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A141" s="3" t="s">
         <v>40</v>
       </c>
@@ -5416,7 +5426,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A142" s="3" t="s">
         <v>113</v>
       </c>
@@ -5430,7 +5440,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A143" s="3" t="s">
         <v>779</v>
       </c>
@@ -5444,7 +5454,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A144" s="3" t="s">
         <v>192</v>
       </c>
@@ -5458,7 +5468,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A145" s="3" t="s">
         <v>776</v>
       </c>
@@ -5472,7 +5482,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A146" s="3" t="s">
         <v>404</v>
       </c>
@@ -5483,7 +5493,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A147" s="3" t="s">
         <v>424</v>
       </c>
@@ -5497,7 +5507,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A148" s="3" t="s">
         <v>773</v>
       </c>
@@ -5511,7 +5521,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A149" s="3" t="s">
         <v>43</v>
       </c>
@@ -5525,7 +5535,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A150" s="3" t="s">
         <v>745</v>
       </c>
@@ -5539,7 +5549,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A151" s="3" t="s">
         <v>430</v>
       </c>
@@ -5550,7 +5560,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A152" s="3" t="s">
         <v>743</v>
       </c>
@@ -5561,7 +5571,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A153" s="3" t="s">
         <v>746</v>
       </c>
@@ -5575,7 +5585,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A154" s="3" t="s">
         <v>744</v>
       </c>
@@ -5589,7 +5599,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A155" s="3" t="s">
         <v>730</v>
       </c>
@@ -5603,7 +5613,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A156" s="3" t="s">
         <v>910</v>
       </c>
@@ -5614,7 +5624,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A157" s="3" t="s">
         <v>712</v>
       </c>
@@ -5625,7 +5635,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A158" s="3" t="s">
         <v>729</v>
       </c>
@@ -5639,7 +5649,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A159" s="3" t="s">
         <v>258</v>
       </c>
@@ -5650,7 +5660,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A160" s="3" t="s">
         <v>45</v>
       </c>
@@ -5661,7 +5671,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A161" s="3" t="s">
         <v>116</v>
       </c>
@@ -5675,7 +5685,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A162" s="3" t="s">
         <v>195</v>
       </c>
@@ -5689,7 +5699,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A163" s="2" t="s">
         <v>709</v>
       </c>
@@ -5703,7 +5713,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A164" s="3" t="s">
         <v>714</v>
       </c>
@@ -5717,7 +5727,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A165" s="3" t="s">
         <v>423</v>
       </c>
@@ -5731,7 +5741,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A166" s="3" t="s">
         <v>119</v>
       </c>
@@ -5745,7 +5755,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A167" s="3" t="s">
         <v>742</v>
       </c>
@@ -5759,7 +5769,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A168" s="3" t="s">
         <v>731</v>
       </c>
@@ -5773,7 +5783,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A169" s="3" t="s">
         <v>748</v>
       </c>
@@ -5787,7 +5797,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A170" s="3" t="s">
         <v>756</v>
       </c>
@@ -5798,7 +5808,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A171" s="3" t="s">
         <v>707</v>
       </c>
@@ -5812,7 +5822,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A172" s="4" t="s">
         <v>940</v>
       </c>
@@ -5823,7 +5833,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A173" s="3" t="s">
         <v>50</v>
       </c>
@@ -5837,7 +5847,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A174" s="3" t="s">
         <v>764</v>
       </c>
@@ -5848,7 +5858,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A175" s="4" t="s">
         <v>943</v>
       </c>
@@ -5859,7 +5869,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A176" s="3" t="s">
         <v>48</v>
       </c>
@@ -5870,7 +5880,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A177" s="3" t="s">
         <v>763</v>
       </c>
@@ -5881,7 +5891,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A178" s="3" t="s">
         <v>931</v>
       </c>
@@ -5895,7 +5905,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A179" s="3" t="s">
         <v>422</v>
       </c>
@@ -5906,7 +5916,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A180" s="3" t="s">
         <v>752</v>
       </c>
@@ -5920,7 +5930,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A181" s="3" t="s">
         <v>758</v>
       </c>
@@ -5934,7 +5944,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A182" s="3" t="s">
         <v>434</v>
       </c>
@@ -5945,7 +5955,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A183" s="2" t="s">
         <v>932</v>
       </c>
@@ -5959,7 +5969,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A184" s="3" t="s">
         <v>439</v>
       </c>
@@ -5973,7 +5983,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A185" s="3" t="s">
         <v>122</v>
       </c>
@@ -5987,7 +5997,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A186" s="3" t="s">
         <v>125</v>
       </c>
@@ -5998,7 +6008,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A187" s="3" t="s">
         <v>930</v>
       </c>
@@ -6009,7 +6019,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A188" s="3" t="s">
         <v>761</v>
       </c>
@@ -6023,7 +6033,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A189" s="3" t="s">
         <v>770</v>
       </c>
@@ -6034,7 +6044,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A190" s="3" t="s">
         <v>754</v>
       </c>
@@ -6048,7 +6058,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A191" s="3" t="s">
         <v>198</v>
       </c>
@@ -6062,7 +6072,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A192" s="3" t="s">
         <v>128</v>
       </c>
@@ -6076,7 +6086,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A193" s="3" t="s">
         <v>442</v>
       </c>
@@ -6090,7 +6100,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="194" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A194" s="3" t="s">
         <v>718</v>
       </c>
@@ -6101,7 +6111,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A195" s="3" t="s">
         <v>132</v>
       </c>
@@ -6112,7 +6122,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A196" s="3" t="s">
         <v>462</v>
       </c>
@@ -6126,7 +6136,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A197" s="3" t="s">
         <v>134</v>
       </c>
@@ -6140,7 +6150,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A198" s="3" t="s">
         <v>469</v>
       </c>
@@ -6151,7 +6161,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A199" s="3" t="s">
         <v>324</v>
       </c>
@@ -6162,7 +6172,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A200" s="3" t="s">
         <v>933</v>
       </c>
@@ -6176,7 +6186,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A201" s="3" t="s">
         <v>700</v>
       </c>
@@ -6190,7 +6200,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A202" s="3" t="s">
         <v>475</v>
       </c>
@@ -6204,7 +6214,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A203" s="3" t="s">
         <v>261</v>
       </c>
@@ -6218,7 +6228,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A204" s="2" t="s">
         <v>514</v>
       </c>
@@ -6232,7 +6242,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A205" s="3" t="s">
         <v>726</v>
       </c>
@@ -6246,7 +6256,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A206" s="3" t="s">
         <v>517</v>
       </c>
@@ -6260,7 +6270,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A207" s="3" t="s">
         <v>480</v>
       </c>
@@ -6274,7 +6284,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A208" s="3" t="s">
         <v>479</v>
       </c>
@@ -6288,7 +6298,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A209" s="3" t="s">
         <v>483</v>
       </c>
@@ -6302,7 +6312,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A210" s="3" t="s">
         <v>695</v>
       </c>
@@ -6313,7 +6323,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A211" s="3" t="s">
         <v>137</v>
       </c>
@@ -6327,7 +6337,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A212" s="3" t="s">
         <v>751</v>
       </c>
@@ -6341,7 +6351,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A213" s="3" t="s">
         <v>264</v>
       </c>
@@ -6352,7 +6362,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A214" s="2" t="s">
         <v>486</v>
       </c>
@@ -6363,7 +6373,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A215" s="3" t="s">
         <v>54</v>
       </c>
@@ -6377,7 +6387,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A216" s="3" t="s">
         <v>141</v>
       </c>
@@ -6391,7 +6401,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A217" s="3" t="s">
         <v>144</v>
       </c>
@@ -6402,7 +6412,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A218" s="3" t="s">
         <v>327</v>
       </c>
@@ -6416,7 +6426,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A219" s="3" t="s">
         <v>421</v>
       </c>
@@ -6427,7 +6437,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A220" s="3" t="s">
         <v>145</v>
       </c>
@@ -6438,7 +6448,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A221" s="3" t="s">
         <v>56</v>
       </c>
@@ -6452,7 +6462,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A222" s="3" t="s">
         <v>740</v>
       </c>
@@ -6466,7 +6476,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A223" s="3" t="s">
         <v>59</v>
       </c>
@@ -6480,7 +6490,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A224" s="3" t="s">
         <v>749</v>
       </c>
@@ -6491,7 +6501,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A225" s="3" t="s">
         <v>489</v>
       </c>
@@ -6505,7 +6515,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A226" s="3" t="s">
         <v>705</v>
       </c>
@@ -6519,7 +6529,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A227" s="3" t="s">
         <v>60</v>
       </c>
@@ -6533,7 +6543,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A228" s="3" t="s">
         <v>704</v>
       </c>
@@ -6544,7 +6554,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A229" s="3" t="s">
         <v>494</v>
       </c>
@@ -6555,7 +6565,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A230" s="3" t="s">
         <v>720</v>
       </c>
@@ -6569,7 +6579,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A231" s="2" t="s">
         <v>716</v>
       </c>
@@ -6580,7 +6590,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A232" s="3" t="s">
         <v>63</v>
       </c>
@@ -6594,7 +6604,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A233" s="3" t="s">
         <v>149</v>
       </c>
@@ -6605,7 +6615,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A234" s="3" t="s">
         <v>703</v>
       </c>
@@ -6619,7 +6629,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A235" s="3" t="s">
         <v>698</v>
       </c>
@@ -6633,7 +6643,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A236" s="3" t="s">
         <v>618</v>
       </c>
@@ -6647,7 +6657,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A237" s="3" t="s">
         <v>332</v>
       </c>
@@ -6661,7 +6671,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A238" s="3" t="s">
         <v>201</v>
       </c>
@@ -6672,7 +6682,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A239" s="3" t="s">
         <v>204</v>
       </c>
@@ -6683,7 +6693,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A240" s="3" t="s">
         <v>780</v>
       </c>
@@ -6697,7 +6707,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A241" s="3" t="s">
         <v>769</v>
       </c>
@@ -6711,7 +6721,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A242" s="3" t="s">
         <v>768</v>
       </c>
@@ -6722,7 +6732,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A243" s="3" t="s">
         <v>67</v>
       </c>
@@ -6736,7 +6746,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A244" s="3" t="s">
         <v>152</v>
       </c>
@@ -6750,7 +6760,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A245" s="2" t="s">
         <v>466</v>
       </c>
@@ -6761,7 +6771,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A246" s="3" t="s">
         <v>715</v>
       </c>
@@ -6775,7 +6785,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A247" s="3" t="s">
         <v>739</v>
       </c>
@@ -6789,7 +6799,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A248" s="3" t="s">
         <v>155</v>
       </c>
@@ -6803,7 +6813,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A249" s="3" t="s">
         <v>771</v>
       </c>
@@ -6817,7 +6827,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A250" s="3" t="s">
         <v>497</v>
       </c>
@@ -6831,7 +6841,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A251" s="3" t="s">
         <v>719</v>
       </c>
@@ -6842,7 +6852,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A252" s="3" t="s">
         <v>767</v>
       </c>
@@ -6856,7 +6866,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A253" s="3" t="s">
         <v>765</v>
       </c>
@@ -6870,7 +6880,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A254" s="3" t="s">
         <v>70</v>
       </c>
@@ -6884,7 +6894,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A255" s="3" t="s">
         <v>725</v>
       </c>
@@ -6898,7 +6908,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A256" s="3" t="s">
         <v>76</v>
       </c>
@@ -6912,7 +6922,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A257" s="3" t="s">
         <v>77</v>
       </c>
@@ -6923,7 +6933,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A258" s="3" t="s">
         <v>420</v>
       </c>
@@ -6937,7 +6947,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A259" s="3" t="s">
         <v>450</v>
       </c>
@@ -6951,7 +6961,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A260" s="3" t="s">
         <v>158</v>
       </c>
@@ -6965,7 +6975,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A261" s="3" t="s">
         <v>500</v>
       </c>
@@ -6979,7 +6989,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A262" s="3" t="s">
         <v>734</v>
       </c>
@@ -6993,7 +7003,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A263" s="3" t="s">
         <v>267</v>
       </c>
@@ -7007,7 +7017,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A264" s="3" t="s">
         <v>270</v>
       </c>
@@ -7021,7 +7031,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A265" s="3" t="s">
         <v>701</v>
       </c>
@@ -7035,7 +7045,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A266" s="3" t="s">
         <v>207</v>
       </c>
@@ -7049,7 +7059,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A267" s="3" t="s">
         <v>723</v>
       </c>
@@ -7060,17 +7070,17 @@
         <v>560</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A268" s="3" t="s">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A268" s="5" t="s">
         <v>419</v>
       </c>
-      <c r="B268" s="3" t="s">
+      <c r="B268" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="C268" s="3" t="s">
+      <c r="C268" s="5" t="s">
         <v>339</v>
       </c>
-      <c r="D268" s="3" t="s">
+      <c r="D268" s="5" t="s">
         <v>787</v>
       </c>
     </row>

--- a/Table_S1.xlsx
+++ b/Table_S1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\jianguoyun\shinyReview\Manuscript\BIB\R1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GIT\shinyReview\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40825479-C80B-4A34-9BF3-AC264C17F213}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44C71015-1842-4E00-91F1-C26A6DD8A12F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1740" yWindow="-120" windowWidth="27180" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table S1" sheetId="2" r:id="rId1"/>
@@ -3151,10 +3151,6 @@
     <t>Web techniques</t>
   </si>
   <si>
-    <t>Table S1. Survey of the web techniques used to build biological web applications in the latest issues of web servers and databases of Nucleic Acid Research.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>NCBI</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3232,6 +3228,10 @@
   </si>
   <si>
     <t>Java + Python</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Table S1. Survey of the web techniques used to build biological web applications in the latest issues of web servers and databases of Nucleic Acids Research.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3599,27 +3599,27 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:D1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.1328125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="17.59765625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="45.1328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="61.1328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="17.625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="45.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="61.125" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" s="1" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>939</v>
+        <v>959</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
     </row>
-    <row r="2" spans="1:4" s="4" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" s="4" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>935</v>
       </c>
@@ -3633,7 +3633,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="4" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" s="4" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>735</v>
       </c>
@@ -3647,7 +3647,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -3658,10 +3658,10 @@
         <v>5</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>949</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>782</v>
       </c>
@@ -3675,7 +3675,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>210</v>
       </c>
@@ -3686,7 +3686,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>755</v>
       </c>
@@ -3697,7 +3697,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>213</v>
       </c>
@@ -3711,7 +3711,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>80</v>
       </c>
@@ -3722,7 +3722,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>273</v>
       </c>
@@ -3733,7 +3733,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>728</v>
       </c>
@@ -3747,7 +3747,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>0</v>
       </c>
@@ -3761,7 +3761,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>741</v>
       </c>
@@ -3772,7 +3772,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>216</v>
       </c>
@@ -3783,10 +3783,10 @@
         <v>218</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>959</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>721</v>
       </c>
@@ -3800,7 +3800,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>699</v>
       </c>
@@ -3811,7 +3811,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>775</v>
       </c>
@@ -3822,7 +3822,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>878</v>
       </c>
@@ -3836,7 +3836,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>445</v>
       </c>
@@ -3850,7 +3850,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>706</v>
       </c>
@@ -3864,7 +3864,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>717</v>
       </c>
@@ -3878,7 +3878,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>219</v>
       </c>
@@ -3892,7 +3892,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>753</v>
       </c>
@@ -3903,7 +3903,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>453</v>
       </c>
@@ -3917,7 +3917,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>161</v>
       </c>
@@ -3931,7 +3931,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>759</v>
       </c>
@@ -3945,7 +3945,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>167</v>
       </c>
@@ -3956,7 +3956,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>418</v>
       </c>
@@ -3970,7 +3970,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>343</v>
       </c>
@@ -3981,7 +3981,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>83</v>
       </c>
@@ -3992,7 +3992,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>783</v>
       </c>
@@ -4006,7 +4006,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>346</v>
       </c>
@@ -4020,7 +4020,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>222</v>
       </c>
@@ -4034,7 +4034,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>168</v>
       </c>
@@ -4048,7 +4048,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>349</v>
       </c>
@@ -4062,7 +4062,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>9</v>
       </c>
@@ -4073,10 +4073,10 @@
         <v>10</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>951</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.4">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>777</v>
       </c>
@@ -4087,7 +4087,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>86</v>
       </c>
@@ -4098,7 +4098,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>352</v>
       </c>
@@ -4112,7 +4112,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>89</v>
       </c>
@@ -4126,7 +4126,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>358</v>
       </c>
@@ -4140,7 +4140,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>356</v>
       </c>
@@ -4154,7 +4154,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>778</v>
       </c>
@@ -4165,7 +4165,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>757</v>
       </c>
@@ -4179,7 +4179,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>281</v>
       </c>
@@ -4193,7 +4193,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>278</v>
       </c>
@@ -4207,7 +4207,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>458</v>
       </c>
@@ -4221,7 +4221,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>361</v>
       </c>
@@ -4232,7 +4232,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>364</v>
       </c>
@@ -4243,7 +4243,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>702</v>
       </c>
@@ -4257,7 +4257,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>766</v>
       </c>
@@ -4271,7 +4271,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>225</v>
       </c>
@@ -4285,7 +4285,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>171</v>
       </c>
@@ -4299,7 +4299,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>92</v>
       </c>
@@ -4313,7 +4313,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>174</v>
       </c>
@@ -4327,7 +4327,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>457</v>
       </c>
@@ -4341,7 +4341,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>15</v>
       </c>
@@ -4352,7 +4352,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>454</v>
       </c>
@@ -4363,7 +4363,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>230</v>
       </c>
@@ -4374,7 +4374,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>95</v>
       </c>
@@ -4388,7 +4388,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>367</v>
       </c>
@@ -4402,7 +4402,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>98</v>
       </c>
@@ -4416,7 +4416,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>177</v>
       </c>
@@ -4430,7 +4430,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>446</v>
       </c>
@@ -4441,10 +4441,10 @@
         <v>11</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>950</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.4">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>417</v>
       </c>
@@ -4458,7 +4458,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>416</v>
       </c>
@@ -4469,7 +4469,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>374</v>
       </c>
@@ -4483,7 +4483,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>231</v>
       </c>
@@ -4497,18 +4497,18 @@
         <v>386</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
+        <v>945</v>
+      </c>
+      <c r="B69" s="4" t="s">
         <v>946</v>
       </c>
-      <c r="B69" s="4" t="s">
+      <c r="C69" s="4" t="s">
         <v>947</v>
       </c>
-      <c r="C69" s="4" t="s">
-        <v>948</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>16</v>
       </c>
@@ -4519,7 +4519,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>456</v>
       </c>
@@ -4533,7 +4533,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
         <v>727</v>
       </c>
@@ -4544,7 +4544,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
         <v>738</v>
       </c>
@@ -4558,7 +4558,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>524</v>
       </c>
@@ -4572,7 +4572,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
         <v>447</v>
       </c>
@@ -4586,7 +4586,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
         <v>455</v>
       </c>
@@ -4597,7 +4597,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
         <v>724</v>
       </c>
@@ -4611,7 +4611,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>750</v>
       </c>
@@ -4622,7 +4622,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
         <v>101</v>
       </c>
@@ -4633,7 +4633,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
         <v>762</v>
       </c>
@@ -4647,7 +4647,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
         <v>459</v>
       </c>
@@ -4658,7 +4658,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>448</v>
       </c>
@@ -4669,7 +4669,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
         <v>760</v>
       </c>
@@ -4680,7 +4680,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
         <v>736</v>
       </c>
@@ -4691,10 +4691,10 @@
         <v>589</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>955</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.4">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
         <v>234</v>
       </c>
@@ -4705,7 +4705,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
         <v>21</v>
       </c>
@@ -4716,7 +4716,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
         <v>460</v>
       </c>
@@ -4727,7 +4727,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
         <v>106</v>
       </c>
@@ -4741,7 +4741,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
         <v>772</v>
       </c>
@@ -4752,7 +4752,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
         <v>237</v>
       </c>
@@ -4766,7 +4766,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
         <v>240</v>
       </c>
@@ -4777,7 +4777,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>710</v>
       </c>
@@ -4788,7 +4788,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
         <v>711</v>
       </c>
@@ -4799,7 +4799,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
         <v>243</v>
       </c>
@@ -4813,7 +4813,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
         <v>107</v>
       </c>
@@ -4827,7 +4827,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
         <v>505</v>
       </c>
@@ -4838,7 +4838,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
         <v>508</v>
       </c>
@@ -4849,7 +4849,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
         <v>24</v>
       </c>
@@ -4863,7 +4863,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
         <v>415</v>
       </c>
@@ -4877,7 +4877,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
         <v>27</v>
       </c>
@@ -4888,10 +4888,10 @@
         <v>29</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>952</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.4">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
         <v>414</v>
       </c>
@@ -4902,7 +4902,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
         <v>426</v>
       </c>
@@ -4913,7 +4913,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
         <v>413</v>
       </c>
@@ -4924,7 +4924,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
         <v>461</v>
       </c>
@@ -4938,7 +4938,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
         <v>412</v>
       </c>
@@ -4952,7 +4952,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
         <v>306</v>
       </c>
@@ -4963,7 +4963,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
         <v>246</v>
       </c>
@@ -4977,7 +4977,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
         <v>722</v>
       </c>
@@ -4991,7 +4991,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
         <v>411</v>
       </c>
@@ -5005,7 +5005,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
         <v>449</v>
       </c>
@@ -5019,7 +5019,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
         <v>310</v>
       </c>
@@ -5030,7 +5030,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
         <v>410</v>
       </c>
@@ -5041,7 +5041,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
         <v>249</v>
       </c>
@@ -5052,7 +5052,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
         <v>252</v>
       </c>
@@ -5066,7 +5066,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
         <v>30</v>
       </c>
@@ -5077,10 +5077,10 @@
         <v>32</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>957</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.4">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
         <v>409</v>
       </c>
@@ -5094,7 +5094,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
         <v>34</v>
       </c>
@@ -5105,10 +5105,10 @@
         <v>33</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.4">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
         <v>408</v>
       </c>
@@ -5119,7 +5119,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
         <v>737</v>
       </c>
@@ -5133,7 +5133,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
         <v>781</v>
       </c>
@@ -5147,7 +5147,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
         <v>110</v>
       </c>
@@ -5158,7 +5158,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
         <v>747</v>
       </c>
@@ -5172,7 +5172,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
         <v>180</v>
       </c>
@@ -5183,7 +5183,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
         <v>183</v>
       </c>
@@ -5194,7 +5194,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
         <v>186</v>
       </c>
@@ -5208,7 +5208,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
         <v>189</v>
       </c>
@@ -5222,7 +5222,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
         <v>713</v>
       </c>
@@ -5233,7 +5233,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
         <v>511</v>
       </c>
@@ -5247,7 +5247,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
         <v>774</v>
       </c>
@@ -5261,7 +5261,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
         <v>407</v>
       </c>
@@ -5275,7 +5275,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
         <v>732</v>
       </c>
@@ -5289,7 +5289,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
         <v>708</v>
       </c>
@@ -5303,7 +5303,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="s">
         <v>406</v>
       </c>
@@ -5317,7 +5317,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
         <v>36</v>
       </c>
@@ -5331,7 +5331,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
         <v>313</v>
       </c>
@@ -5345,7 +5345,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="s">
         <v>425</v>
       </c>
@@ -5359,7 +5359,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="3" t="s">
         <v>296</v>
       </c>
@@ -5370,10 +5370,10 @@
         <v>867</v>
       </c>
       <c r="D137" s="3" t="s">
-        <v>954</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.4">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="3" t="s">
         <v>405</v>
       </c>
@@ -5387,7 +5387,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="3" t="s">
         <v>255</v>
       </c>
@@ -5401,7 +5401,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="3" t="s">
         <v>733</v>
       </c>
@@ -5415,7 +5415,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="3" t="s">
         <v>40</v>
       </c>
@@ -5426,7 +5426,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="3" t="s">
         <v>113</v>
       </c>
@@ -5440,7 +5440,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="3" t="s">
         <v>779</v>
       </c>
@@ -5454,7 +5454,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="3" t="s">
         <v>192</v>
       </c>
@@ -5468,7 +5468,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="3" t="s">
         <v>776</v>
       </c>
@@ -5482,7 +5482,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="3" t="s">
         <v>404</v>
       </c>
@@ -5493,7 +5493,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="3" t="s">
         <v>424</v>
       </c>
@@ -5507,7 +5507,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="3" t="s">
         <v>773</v>
       </c>
@@ -5521,7 +5521,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="3" t="s">
         <v>43</v>
       </c>
@@ -5535,7 +5535,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="3" t="s">
         <v>745</v>
       </c>
@@ -5549,7 +5549,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="3" t="s">
         <v>430</v>
       </c>
@@ -5560,7 +5560,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="3" t="s">
         <v>743</v>
       </c>
@@ -5571,7 +5571,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="3" t="s">
         <v>746</v>
       </c>
@@ -5585,7 +5585,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="3" t="s">
         <v>744</v>
       </c>
@@ -5599,7 +5599,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="3" t="s">
         <v>730</v>
       </c>
@@ -5613,7 +5613,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="3" t="s">
         <v>910</v>
       </c>
@@ -5624,7 +5624,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="3" t="s">
         <v>712</v>
       </c>
@@ -5635,7 +5635,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="3" t="s">
         <v>729</v>
       </c>
@@ -5649,7 +5649,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="3" t="s">
         <v>258</v>
       </c>
@@ -5660,7 +5660,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="3" t="s">
         <v>45</v>
       </c>
@@ -5671,7 +5671,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="3" t="s">
         <v>116</v>
       </c>
@@ -5685,7 +5685,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="3" t="s">
         <v>195</v>
       </c>
@@ -5699,7 +5699,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
         <v>709</v>
       </c>
@@ -5713,7 +5713,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="3" t="s">
         <v>714</v>
       </c>
@@ -5727,7 +5727,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="3" t="s">
         <v>423</v>
       </c>
@@ -5741,7 +5741,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="3" t="s">
         <v>119</v>
       </c>
@@ -5755,7 +5755,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="3" t="s">
         <v>742</v>
       </c>
@@ -5769,7 +5769,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="3" t="s">
         <v>731</v>
       </c>
@@ -5783,7 +5783,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="3" t="s">
         <v>748</v>
       </c>
@@ -5794,10 +5794,10 @@
         <v>613</v>
       </c>
       <c r="D169" s="3" t="s">
-        <v>956</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.4">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="3" t="s">
         <v>756</v>
       </c>
@@ -5808,7 +5808,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="3" t="s">
         <v>707</v>
       </c>
@@ -5822,18 +5822,18 @@
         <v>795</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="4" t="s">
+        <v>939</v>
+      </c>
+      <c r="B172" s="4" t="s">
         <v>940</v>
       </c>
-      <c r="B172" s="4" t="s">
+      <c r="C172" s="4" t="s">
         <v>941</v>
       </c>
-      <c r="C172" s="4" t="s">
-        <v>942</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="3" t="s">
         <v>50</v>
       </c>
@@ -5847,7 +5847,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="3" t="s">
         <v>764</v>
       </c>
@@ -5858,18 +5858,18 @@
         <v>647</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="4" t="s">
+        <v>942</v>
+      </c>
+      <c r="B175" s="4" t="s">
         <v>943</v>
       </c>
-      <c r="B175" s="4" t="s">
+      <c r="C175" s="4" t="s">
         <v>944</v>
       </c>
-      <c r="C175" s="4" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="3" t="s">
         <v>48</v>
       </c>
@@ -5880,7 +5880,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="3" t="s">
         <v>763</v>
       </c>
@@ -5891,7 +5891,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="3" t="s">
         <v>931</v>
       </c>
@@ -5905,7 +5905,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="3" t="s">
         <v>422</v>
       </c>
@@ -5916,7 +5916,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="3" t="s">
         <v>752</v>
       </c>
@@ -5930,7 +5930,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="3" t="s">
         <v>758</v>
       </c>
@@ -5944,7 +5944,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="3" t="s">
         <v>434</v>
       </c>
@@ -5955,7 +5955,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
         <v>932</v>
       </c>
@@ -5969,7 +5969,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="3" t="s">
         <v>439</v>
       </c>
@@ -5983,7 +5983,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="3" t="s">
         <v>122</v>
       </c>
@@ -5997,7 +5997,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="3" t="s">
         <v>125</v>
       </c>
@@ -6008,7 +6008,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="3" t="s">
         <v>930</v>
       </c>
@@ -6019,7 +6019,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="3" t="s">
         <v>761</v>
       </c>
@@ -6033,7 +6033,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="3" t="s">
         <v>770</v>
       </c>
@@ -6044,7 +6044,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="3" t="s">
         <v>754</v>
       </c>
@@ -6058,7 +6058,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="3" t="s">
         <v>198</v>
       </c>
@@ -6072,7 +6072,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="3" t="s">
         <v>128</v>
       </c>
@@ -6086,7 +6086,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" s="3" t="s">
         <v>442</v>
       </c>
@@ -6100,7 +6100,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="194" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="194" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="3" t="s">
         <v>718</v>
       </c>
@@ -6111,7 +6111,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" s="3" t="s">
         <v>132</v>
       </c>
@@ -6122,7 +6122,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" s="3" t="s">
         <v>462</v>
       </c>
@@ -6136,7 +6136,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" s="3" t="s">
         <v>134</v>
       </c>
@@ -6150,7 +6150,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" s="3" t="s">
         <v>469</v>
       </c>
@@ -6161,7 +6161,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" s="3" t="s">
         <v>324</v>
       </c>
@@ -6172,7 +6172,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" s="3" t="s">
         <v>933</v>
       </c>
@@ -6186,7 +6186,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" s="3" t="s">
         <v>700</v>
       </c>
@@ -6200,7 +6200,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" s="3" t="s">
         <v>475</v>
       </c>
@@ -6214,7 +6214,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" s="3" t="s">
         <v>261</v>
       </c>
@@ -6228,7 +6228,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="s">
         <v>514</v>
       </c>
@@ -6242,7 +6242,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" s="3" t="s">
         <v>726</v>
       </c>
@@ -6256,7 +6256,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" s="3" t="s">
         <v>517</v>
       </c>
@@ -6270,7 +6270,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" s="3" t="s">
         <v>480</v>
       </c>
@@ -6284,7 +6284,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" s="3" t="s">
         <v>479</v>
       </c>
@@ -6298,7 +6298,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" s="3" t="s">
         <v>483</v>
       </c>
@@ -6312,7 +6312,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" s="3" t="s">
         <v>695</v>
       </c>
@@ -6323,7 +6323,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" s="3" t="s">
         <v>137</v>
       </c>
@@ -6337,7 +6337,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" s="3" t="s">
         <v>751</v>
       </c>
@@ -6348,10 +6348,10 @@
         <v>624</v>
       </c>
       <c r="D212" s="3" t="s">
-        <v>958</v>
-      </c>
-    </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.4">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" s="3" t="s">
         <v>264</v>
       </c>
@@ -6362,7 +6362,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" s="2" t="s">
         <v>486</v>
       </c>
@@ -6373,7 +6373,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" s="3" t="s">
         <v>54</v>
       </c>
@@ -6387,7 +6387,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" s="3" t="s">
         <v>141</v>
       </c>
@@ -6401,7 +6401,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" s="3" t="s">
         <v>144</v>
       </c>
@@ -6412,7 +6412,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" s="3" t="s">
         <v>327</v>
       </c>
@@ -6426,7 +6426,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" s="3" t="s">
         <v>421</v>
       </c>
@@ -6437,7 +6437,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" s="3" t="s">
         <v>145</v>
       </c>
@@ -6448,7 +6448,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" s="3" t="s">
         <v>56</v>
       </c>
@@ -6462,7 +6462,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" s="3" t="s">
         <v>740</v>
       </c>
@@ -6476,7 +6476,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" s="3" t="s">
         <v>59</v>
       </c>
@@ -6490,7 +6490,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" s="3" t="s">
         <v>749</v>
       </c>
@@ -6501,7 +6501,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" s="3" t="s">
         <v>489</v>
       </c>
@@ -6515,7 +6515,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" s="3" t="s">
         <v>705</v>
       </c>
@@ -6529,7 +6529,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" s="3" t="s">
         <v>60</v>
       </c>
@@ -6543,7 +6543,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" s="3" t="s">
         <v>704</v>
       </c>
@@ -6554,7 +6554,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" s="3" t="s">
         <v>494</v>
       </c>
@@ -6565,7 +6565,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" s="3" t="s">
         <v>720</v>
       </c>
@@ -6579,7 +6579,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" s="2" t="s">
         <v>716</v>
       </c>
@@ -6590,7 +6590,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" s="3" t="s">
         <v>63</v>
       </c>
@@ -6604,7 +6604,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" s="3" t="s">
         <v>149</v>
       </c>
@@ -6615,7 +6615,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" s="3" t="s">
         <v>703</v>
       </c>
@@ -6629,7 +6629,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" s="3" t="s">
         <v>698</v>
       </c>
@@ -6643,7 +6643,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" s="3" t="s">
         <v>618</v>
       </c>
@@ -6657,7 +6657,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" s="3" t="s">
         <v>332</v>
       </c>
@@ -6671,7 +6671,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" s="3" t="s">
         <v>201</v>
       </c>
@@ -6682,7 +6682,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" s="3" t="s">
         <v>204</v>
       </c>
@@ -6693,7 +6693,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" s="3" t="s">
         <v>780</v>
       </c>
@@ -6707,7 +6707,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" s="3" t="s">
         <v>769</v>
       </c>
@@ -6721,7 +6721,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" s="3" t="s">
         <v>768</v>
       </c>
@@ -6732,7 +6732,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" s="3" t="s">
         <v>67</v>
       </c>
@@ -6746,7 +6746,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" s="3" t="s">
         <v>152</v>
       </c>
@@ -6760,7 +6760,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" s="2" t="s">
         <v>466</v>
       </c>
@@ -6771,7 +6771,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" s="3" t="s">
         <v>715</v>
       </c>
@@ -6785,7 +6785,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247" s="3" t="s">
         <v>739</v>
       </c>
@@ -6799,7 +6799,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248" s="3" t="s">
         <v>155</v>
       </c>
@@ -6813,7 +6813,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249" s="3" t="s">
         <v>771</v>
       </c>
@@ -6827,7 +6827,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250" s="3" t="s">
         <v>497</v>
       </c>
@@ -6841,7 +6841,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251" s="3" t="s">
         <v>719</v>
       </c>
@@ -6852,7 +6852,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252" s="3" t="s">
         <v>767</v>
       </c>
@@ -6866,7 +6866,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253" s="3" t="s">
         <v>765</v>
       </c>
@@ -6880,7 +6880,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254" s="3" t="s">
         <v>70</v>
       </c>
@@ -6894,7 +6894,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255" s="3" t="s">
         <v>725</v>
       </c>
@@ -6908,7 +6908,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256" s="3" t="s">
         <v>76</v>
       </c>
@@ -6922,7 +6922,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257" s="3" t="s">
         <v>77</v>
       </c>
@@ -6933,7 +6933,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258" s="3" t="s">
         <v>420</v>
       </c>
@@ -6947,7 +6947,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259" s="3" t="s">
         <v>450</v>
       </c>
@@ -6961,7 +6961,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260" s="3" t="s">
         <v>158</v>
       </c>
@@ -6975,7 +6975,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261" s="3" t="s">
         <v>500</v>
       </c>
@@ -6989,7 +6989,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262" s="3" t="s">
         <v>734</v>
       </c>
@@ -7003,7 +7003,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263" s="3" t="s">
         <v>267</v>
       </c>
@@ -7017,7 +7017,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264" s="3" t="s">
         <v>270</v>
       </c>
@@ -7031,7 +7031,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265" s="3" t="s">
         <v>701</v>
       </c>
@@ -7045,7 +7045,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266" s="3" t="s">
         <v>207</v>
       </c>
@@ -7059,7 +7059,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267" s="3" t="s">
         <v>723</v>
       </c>
@@ -7070,7 +7070,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268" s="5" t="s">
         <v>419</v>
       </c>
